--- a/BasicStudy.xlsx
+++ b/BasicStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jk977\OneDrive\Desktop\Excel Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA0DFF-8588-4F83-9C51-69F74F70E036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008FD662-AEF5-4A23-A01B-84F28C145A0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{EE8F4E75-D33F-4EC9-AFBD-A7675BDC1333}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>pass|Fail</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
   </si>
 </sst>
 </file>
@@ -705,10 +708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E26656-18E9-481A-B537-B9F2D9FEC794}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,8 +804,17 @@
         <v>99</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C6&gt;=60,"Pass","Fail")</f>
         <v>Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
